--- a/medicine/Sexualité et sexologie/Sexcrimes___Diamants_mortels/Sexcrimes___Diamants_mortels.xlsx
+++ b/medicine/Sexualité et sexologie/Sexcrimes___Diamants_mortels/Sexcrimes___Diamants_mortels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sexcrimes : Diamants mortels ou Les Racoleuses : Beauté Fatale au Québec (Wild Things: Diamonds in the Rough) est un film américain réalisé par Jay Lowi, sorti en 2005.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Blue Bay, en Floride, Marie Clifton a tout pour être heureuse. À seulement 18 ans, elle doit hériter de la fortune de sa mère, dont deux sublimes diamants ; son beau-père, criblé de dettes, tente toutefois de s'en emparer. Mais quand son beau-père est accusé de viol par Elena, la nouvelle du campus, Marie doit décider qui est innocent et qui essaie de la duper...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Sexcrimes : Diamants mortels
 Titre québécois : Les Racoleuses : Beauté Fatale
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sarah Laine (VF : Sybille Tureau) : Marie Clifton
 Sandra McCoy (VF : Céline Ronté) : Elena Sandoval
@@ -596,7 +614,7 @@
 Claire Coffee (VF : Sandra Valentin) : Jenny Bellamy
 Sandra Purpuro (VF : Maïté Monceau) : Sarah Lovell
 Nikki Griffin : Risa
-Source et légende : Version française (VF) sur Doublagissimo[1]</t>
+Source et légende : Version française (VF) sur Doublagissimo</t>
         </is>
       </c>
     </row>
